--- a/attendance_issue.xlsx
+++ b/attendance_issue.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Documents\Fall 2016\Database Concepts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\ND '16-'17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
   <si>
     <t>NetID</t>
   </si>
@@ -36,6 +36,60 @@
   </si>
   <si>
     <t>Excused</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mcapella</t>
+  </si>
+  <si>
+    <t>Jessup, Harrison</t>
+  </si>
+  <si>
+    <t>cmulholl</t>
+  </si>
+  <si>
+    <t>joneil11</t>
+  </si>
+  <si>
+    <t>jrudlof2</t>
+  </si>
+  <si>
+    <t>Glaser, Andrew</t>
+  </si>
+  <si>
+    <t>jvander4</t>
+  </si>
+  <si>
+    <t>dconnel5</t>
+  </si>
+  <si>
+    <t>eglaser</t>
+  </si>
+  <si>
+    <t>jlombar2</t>
+  </si>
+  <si>
+    <t>McKenna, Kiera</t>
+  </si>
+  <si>
+    <t>jthesing</t>
+  </si>
+  <si>
+    <t>mwang7</t>
   </si>
 </sst>
 </file>
@@ -387,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -412,6 +466,482 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attendance_issue.xlsx
+++ b/attendance_issue.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="108">
   <si>
     <t>NetID</t>
   </si>
@@ -90,6 +90,264 @@
   </si>
   <si>
     <t>mwang7</t>
+  </si>
+  <si>
+    <t>lodonnel</t>
+  </si>
+  <si>
+    <t>lfernan4</t>
+  </si>
+  <si>
+    <t>tprosser</t>
+  </si>
+  <si>
+    <t>amceache</t>
+  </si>
+  <si>
+    <t>kshih</t>
+  </si>
+  <si>
+    <t>wcao</t>
+  </si>
+  <si>
+    <t>ekoykka</t>
+  </si>
+  <si>
+    <t>mshinn</t>
+  </si>
+  <si>
+    <t>cbangorg</t>
+  </si>
+  <si>
+    <t>hhughes1</t>
+  </si>
+  <si>
+    <t>ldonahue</t>
+  </si>
+  <si>
+    <t>jwarner4</t>
+  </si>
+  <si>
+    <t>cespino1</t>
+  </si>
+  <si>
+    <t>gcollin1</t>
+  </si>
+  <si>
+    <t>McKalip, Ryan</t>
+  </si>
+  <si>
+    <t>tbickel1</t>
+  </si>
+  <si>
+    <t>abranno1</t>
+  </si>
+  <si>
+    <t>mbrown32</t>
+  </si>
+  <si>
+    <t>dcohen</t>
+  </si>
+  <si>
+    <t>sfick</t>
+  </si>
+  <si>
+    <t>kstefane</t>
+  </si>
+  <si>
+    <t>lbartlet</t>
+  </si>
+  <si>
+    <t>surquidi</t>
+  </si>
+  <si>
+    <t>cbauer1</t>
+  </si>
+  <si>
+    <t>aderouin</t>
+  </si>
+  <si>
+    <t>efoernss</t>
+  </si>
+  <si>
+    <t>jmaher5</t>
+  </si>
+  <si>
+    <t>hbarlow</t>
+  </si>
+  <si>
+    <t>mgschwin</t>
+  </si>
+  <si>
+    <t>cebner</t>
+  </si>
+  <si>
+    <t>mmann3</t>
+  </si>
+  <si>
+    <t>jmccrea1</t>
+  </si>
+  <si>
+    <t>gstreich</t>
+  </si>
+  <si>
+    <t>ezimmer2</t>
+  </si>
+  <si>
+    <t>emccuske</t>
+  </si>
+  <si>
+    <t>hray2</t>
+  </si>
+  <si>
+    <t>kruiz3</t>
+  </si>
+  <si>
+    <t>ssqueri</t>
+  </si>
+  <si>
+    <t>amitch12</t>
+  </si>
+  <si>
+    <t>kvolk</t>
+  </si>
+  <si>
+    <t>Oh, Kate</t>
+  </si>
+  <si>
+    <t>etackman</t>
+  </si>
+  <si>
+    <t>pkoszuta</t>
+  </si>
+  <si>
+    <t>jison1</t>
+  </si>
+  <si>
+    <t>igarciab</t>
+  </si>
+  <si>
+    <t>mmckalip</t>
+  </si>
+  <si>
+    <t>mbrummon</t>
+  </si>
+  <si>
+    <t>jdean4</t>
+  </si>
+  <si>
+    <t>mkang1</t>
+  </si>
+  <si>
+    <t>mmullan3</t>
+  </si>
+  <si>
+    <t>cpowers9</t>
+  </si>
+  <si>
+    <t>mflanag6</t>
+  </si>
+  <si>
+    <t>tsaad</t>
+  </si>
+  <si>
+    <t>mkosfeld</t>
+  </si>
+  <si>
+    <t>aperezdo</t>
+  </si>
+  <si>
+    <t>mbuche1</t>
+  </si>
+  <si>
+    <t>imackett</t>
+  </si>
+  <si>
+    <t>bvasquez</t>
+  </si>
+  <si>
+    <t>mduncan5</t>
+  </si>
+  <si>
+    <t>nmunsen</t>
+  </si>
+  <si>
+    <t>askiff</t>
+  </si>
+  <si>
+    <t>lmader</t>
+  </si>
+  <si>
+    <t>jricci1</t>
+  </si>
+  <si>
+    <t>kplanck</t>
+  </si>
+  <si>
+    <t>blogman</t>
+  </si>
+  <si>
+    <t>gmillig1</t>
+  </si>
+  <si>
+    <t>agrose</t>
+  </si>
+  <si>
+    <t>wporter</t>
+  </si>
+  <si>
+    <t>ofrederi</t>
+  </si>
+  <si>
+    <t>naiello</t>
+  </si>
+  <si>
+    <t>jhuseman</t>
+  </si>
+  <si>
+    <t>jshull</t>
+  </si>
+  <si>
+    <t>De La Torre, Noemi</t>
+  </si>
+  <si>
+    <t>nprocacc</t>
+  </si>
+  <si>
+    <t>lhumphr4</t>
+  </si>
+  <si>
+    <t>lcrawfo3</t>
+  </si>
+  <si>
+    <t>mcavanag</t>
+  </si>
+  <si>
+    <t>mmastel1</t>
+  </si>
+  <si>
+    <t>mstolee1</t>
+  </si>
+  <si>
+    <t>jstoner2</t>
+  </si>
+  <si>
+    <t>mnye</t>
+  </si>
+  <si>
+    <t>hshore</t>
+  </si>
+  <si>
+    <t>cjohns41</t>
+  </si>
+  <si>
+    <t>ssutter</t>
+  </si>
+  <si>
+    <t>cbecker2</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -441,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,6 +1200,4324 @@
         <v>7</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130">
+        <v>27</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131">
+        <v>29</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134">
+        <v>30</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135">
+        <v>30</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138">
+        <v>30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142">
+        <v>31</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>53</v>
+      </c>
+      <c r="B150">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152">
+        <v>39</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153">
+        <v>43</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154">
+        <v>43</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155">
+        <v>43</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156">
+        <v>43</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157">
+        <v>44</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158">
+        <v>44</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159">
+        <v>44</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160">
+        <v>44</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>65</v>
+      </c>
+      <c r="B161">
+        <v>44</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162">
+        <v>44</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163">
+        <v>44</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164">
+        <v>45</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165">
+        <v>45</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166">
+        <v>45</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>55</v>
+      </c>
+      <c r="B167">
+        <v>45</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168">
+        <v>46</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169">
+        <v>46</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>38</v>
+      </c>
+      <c r="B172">
+        <v>51</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173">
+        <v>51</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174">
+        <v>51</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175">
+        <v>51</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176">
+        <v>51</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177">
+        <v>51</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178">
+        <v>51</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179">
+        <v>51</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180">
+        <v>51</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181">
+        <v>52</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182">
+        <v>53</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B183">
+        <v>53</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184">
+        <v>53</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185">
+        <v>54</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>44</v>
+      </c>
+      <c r="B186">
+        <v>54</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B187">
+        <v>55</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188">
+        <v>64</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>56</v>
+      </c>
+      <c r="B189">
+        <v>64</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>68</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>72</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>73</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>74</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>75</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>76</v>
+      </c>
+      <c r="B198">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>77</v>
+      </c>
+      <c r="B199">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>71</v>
+      </c>
+      <c r="B200">
+        <v>10</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>72</v>
+      </c>
+      <c r="B201">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>78</v>
+      </c>
+      <c r="B202">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>76</v>
+      </c>
+      <c r="B203">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>79</v>
+      </c>
+      <c r="B204">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205">
+        <v>17</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>70</v>
+      </c>
+      <c r="B206">
+        <v>17</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207">
+        <v>19</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208">
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>77</v>
+      </c>
+      <c r="B209">
+        <v>22</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>78</v>
+      </c>
+      <c r="B210">
+        <v>22</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>76</v>
+      </c>
+      <c r="B211">
+        <v>22</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B212">
+        <v>23</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>71</v>
+      </c>
+      <c r="B213">
+        <v>24</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>74</v>
+      </c>
+      <c r="B214">
+        <v>24</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>83</v>
+      </c>
+      <c r="B215">
+        <v>25</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>76</v>
+      </c>
+      <c r="B216">
+        <v>29</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>84</v>
+      </c>
+      <c r="B217">
+        <v>29</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>69</v>
+      </c>
+      <c r="B218">
+        <v>30</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>72</v>
+      </c>
+      <c r="B219">
+        <v>30</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>70</v>
+      </c>
+      <c r="B220">
+        <v>31</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>78</v>
+      </c>
+      <c r="B221">
+        <v>32</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>76</v>
+      </c>
+      <c r="B222">
+        <v>36</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>69</v>
+      </c>
+      <c r="B223">
+        <v>37</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>85</v>
+      </c>
+      <c r="B224">
+        <v>37</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>72</v>
+      </c>
+      <c r="B225">
+        <v>37</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>86</v>
+      </c>
+      <c r="B227">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>75</v>
+      </c>
+      <c r="B228">
+        <v>43</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229">
+        <v>43</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>76</v>
+      </c>
+      <c r="B230">
+        <v>43</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>69</v>
+      </c>
+      <c r="B231">
+        <v>44</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232">
+        <v>44</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>87</v>
+      </c>
+      <c r="B233">
+        <v>44</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>88</v>
+      </c>
+      <c r="B234">
+        <v>45</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>75</v>
+      </c>
+      <c r="B235">
+        <v>45</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>71</v>
+      </c>
+      <c r="B236">
+        <v>45</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>76</v>
+      </c>
+      <c r="B237">
+        <v>45</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>78</v>
+      </c>
+      <c r="B238">
+        <v>46</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>76</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>76</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>69</v>
+      </c>
+      <c r="B241">
+        <v>51</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>70</v>
+      </c>
+      <c r="B242">
+        <v>52</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>71</v>
+      </c>
+      <c r="B243">
+        <v>52</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>89</v>
+      </c>
+      <c r="B244">
+        <v>52</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>82</v>
+      </c>
+      <c r="B245">
+        <v>52</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>83</v>
+      </c>
+      <c r="B246">
+        <v>53</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>89</v>
+      </c>
+      <c r="B247">
+        <v>53</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>90</v>
+      </c>
+      <c r="B248">
+        <v>64</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>75</v>
+      </c>
+      <c r="B249">
+        <v>64</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>76</v>
+      </c>
+      <c r="B250">
+        <v>64</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>91</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>92</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>93</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>91</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>92</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>94</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>95</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>96</v>
+      </c>
+      <c r="B258">
+        <v>8</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>97</v>
+      </c>
+      <c r="B259">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>91</v>
+      </c>
+      <c r="B260">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>98</v>
+      </c>
+      <c r="B261">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>97</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>92</v>
+      </c>
+      <c r="B263">
+        <v>11</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>99</v>
+      </c>
+      <c r="B264">
+        <v>11</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>91</v>
+      </c>
+      <c r="B265">
+        <v>16</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>92</v>
+      </c>
+      <c r="B266">
+        <v>16</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>99</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>100</v>
+      </c>
+      <c r="B268">
+        <v>16</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>94</v>
+      </c>
+      <c r="B269">
+        <v>19</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>96</v>
+      </c>
+      <c r="B270">
+        <v>22</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>101</v>
+      </c>
+      <c r="B271">
+        <v>22</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>91</v>
+      </c>
+      <c r="B272">
+        <v>23</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>92</v>
+      </c>
+      <c r="B273">
+        <v>23</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>102</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>91</v>
+      </c>
+      <c r="B275">
+        <v>24</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>102</v>
+      </c>
+      <c r="B276">
+        <v>24</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>103</v>
+      </c>
+      <c r="B277">
+        <v>24</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>104</v>
+      </c>
+      <c r="B278">
+        <v>27</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>91</v>
+      </c>
+      <c r="B279">
+        <v>28</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>104</v>
+      </c>
+      <c r="B280">
+        <v>31</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>103</v>
+      </c>
+      <c r="B281">
+        <v>31</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>91</v>
+      </c>
+      <c r="B282">
+        <v>32</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>92</v>
+      </c>
+      <c r="B283">
+        <v>32</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>96</v>
+      </c>
+      <c r="B284">
+        <v>33</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>101</v>
+      </c>
+      <c r="B285">
+        <v>34</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>91</v>
+      </c>
+      <c r="B286">
+        <v>36</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>95</v>
+      </c>
+      <c r="B287">
+        <v>37</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>100</v>
+      </c>
+      <c r="B288">
+        <v>37</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>105</v>
+      </c>
+      <c r="B289">
+        <v>38</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>91</v>
+      </c>
+      <c r="B290">
+        <v>39</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>92</v>
+      </c>
+      <c r="B291">
+        <v>39</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>98</v>
+      </c>
+      <c r="B292">
+        <v>43</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>91</v>
+      </c>
+      <c r="B293">
+        <v>44</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>92</v>
+      </c>
+      <c r="B294">
+        <v>44</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>103</v>
+      </c>
+      <c r="B295">
+        <v>44</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>93</v>
+      </c>
+      <c r="B296">
+        <v>44</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>103</v>
+      </c>
+      <c r="B297">
+        <v>45</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>93</v>
+      </c>
+      <c r="B298">
+        <v>45</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>91</v>
+      </c>
+      <c r="B299">
+        <v>46</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>94</v>
+      </c>
+      <c r="B300">
+        <v>46</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>92</v>
+      </c>
+      <c r="B301">
+        <v>46</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>99</v>
+      </c>
+      <c r="B302">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>105</v>
+      </c>
+      <c r="B303">
+        <v>50</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>91</v>
+      </c>
+      <c r="B304">
+        <v>51</v>
+      </c>
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>106</v>
+      </c>
+      <c r="B305">
+        <v>51</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>91</v>
+      </c>
+      <c r="B306">
+        <v>52</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>91</v>
+      </c>
+      <c r="B307">
+        <v>53</v>
+      </c>
+      <c r="C307" t="s">
+        <v>4</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>92</v>
+      </c>
+      <c r="B308">
+        <v>53</v>
+      </c>
+      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>104</v>
+      </c>
+      <c r="B309">
+        <v>53</v>
+      </c>
+      <c r="C309" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>99</v>
+      </c>
+      <c r="B310">
+        <v>53</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>101</v>
+      </c>
+      <c r="B311">
+        <v>55</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>107</v>
+      </c>
+      <c r="B312">
+        <v>64</v>
+      </c>
+      <c r="C312" t="s">
+        <v>4</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attendance_issue.xlsx
+++ b/attendance_issue.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="184">
   <si>
     <t>NetID</t>
   </si>
@@ -275,6 +275,9 @@
     <t>askiff</t>
   </si>
   <si>
+    <t>mb</t>
+  </si>
+  <si>
     <t>lmader</t>
   </si>
   <si>
@@ -348,6 +351,231 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>mobryan</t>
+  </si>
+  <si>
+    <t>ctennant</t>
+  </si>
+  <si>
+    <t>jzenk1</t>
+  </si>
+  <si>
+    <t>ecrimmin</t>
+  </si>
+  <si>
+    <t>kschaar</t>
+  </si>
+  <si>
+    <t>bjurewic</t>
+  </si>
+  <si>
+    <t>cvander2</t>
+  </si>
+  <si>
+    <t>cravasi1</t>
+  </si>
+  <si>
+    <t>chegarty</t>
+  </si>
+  <si>
+    <t>tmclean</t>
+  </si>
+  <si>
+    <t>rmai</t>
+  </si>
+  <si>
+    <t>bpackey</t>
+  </si>
+  <si>
+    <t>acervan1</t>
+  </si>
+  <si>
+    <t>kmeranda</t>
+  </si>
+  <si>
+    <t>erowlan1</t>
+  </si>
+  <si>
+    <t>kflecken</t>
+  </si>
+  <si>
+    <t>mdonnel9</t>
+  </si>
+  <si>
+    <t>eliu1</t>
+  </si>
+  <si>
+    <t>tenrigh1</t>
+  </si>
+  <si>
+    <t>rsutton1</t>
+  </si>
+  <si>
+    <t>dboley</t>
+  </si>
+  <si>
+    <t>agoo</t>
+  </si>
+  <si>
+    <t>mschunck</t>
+  </si>
+  <si>
+    <t>rtan</t>
+  </si>
+  <si>
+    <t>kgargan</t>
+  </si>
+  <si>
+    <t>mmckenz2</t>
+  </si>
+  <si>
+    <t>cmurray8</t>
+  </si>
+  <si>
+    <t>Berardi, Olivia</t>
+  </si>
+  <si>
+    <t>hkoechle</t>
+  </si>
+  <si>
+    <t>aarroyo</t>
+  </si>
+  <si>
+    <t>bbelz</t>
+  </si>
+  <si>
+    <t>kmccabe3</t>
+  </si>
+  <si>
+    <t>bwileniu</t>
+  </si>
+  <si>
+    <t>jtakazaw</t>
+  </si>
+  <si>
+    <t>mcurlis1</t>
+  </si>
+  <si>
+    <t>dswenson</t>
+  </si>
+  <si>
+    <t>jwurzer</t>
+  </si>
+  <si>
+    <t>abraschl</t>
+  </si>
+  <si>
+    <t>bcoble</t>
+  </si>
+  <si>
+    <t>scullen4</t>
+  </si>
+  <si>
+    <t>jcurci</t>
+  </si>
+  <si>
+    <t>hrho</t>
+  </si>
+  <si>
+    <t>italken</t>
+  </si>
+  <si>
+    <t>mwaldoch</t>
+  </si>
+  <si>
+    <t>abonds2</t>
+  </si>
+  <si>
+    <t>kkolodzi</t>
+  </si>
+  <si>
+    <t>vsellner</t>
+  </si>
+  <si>
+    <t>kausland</t>
+  </si>
+  <si>
+    <t>fforsber</t>
+  </si>
+  <si>
+    <t>tprimes</t>
+  </si>
+  <si>
+    <t>mdemel</t>
+  </si>
+  <si>
+    <t>lmoore5</t>
+  </si>
+  <si>
+    <t>dlund</t>
+  </si>
+  <si>
+    <t>amarti50</t>
+  </si>
+  <si>
+    <t>ewilli23</t>
+  </si>
+  <si>
+    <t>mboston1</t>
+  </si>
+  <si>
+    <t>gnemecek</t>
+  </si>
+  <si>
+    <t>mtroy2</t>
+  </si>
+  <si>
+    <t>mbetita</t>
+  </si>
+  <si>
+    <t>rbrown15</t>
+  </si>
+  <si>
+    <t>DeSantis, Matthew</t>
+  </si>
+  <si>
+    <t>tlewand1</t>
+  </si>
+  <si>
+    <t>kmatlin</t>
+  </si>
+  <si>
+    <t>jcohen1</t>
+  </si>
+  <si>
+    <t>mdonova9</t>
+  </si>
+  <si>
+    <t>ariveral</t>
+  </si>
+  <si>
+    <t>jcole8</t>
+  </si>
+  <si>
+    <t>klentsch</t>
+  </si>
+  <si>
+    <t>jmeyers5</t>
+  </si>
+  <si>
+    <t>jirving2</t>
+  </si>
+  <si>
+    <t>Dong, James</t>
+  </si>
+  <si>
+    <t>kgarabed</t>
+  </si>
+  <si>
+    <t>jmarino1</t>
+  </si>
+  <si>
+    <t>Valentine, Casey</t>
+  </si>
+  <si>
+    <t>edicks</t>
   </si>
 </sst>
 </file>
@@ -699,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="C537" sqref="C537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,7 +3936,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B215">
         <v>25</v>
@@ -3736,7 +3964,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B217">
         <v>29</v>
@@ -3834,7 +4062,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B224">
         <v>37</v>
@@ -3876,7 +4104,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B227">
         <v>38</v>
@@ -3960,7 +4188,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B233">
         <v>44</v>
@@ -3974,7 +4202,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B234">
         <v>45</v>
@@ -4114,7 +4342,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B244">
         <v>52</v>
@@ -4142,7 +4370,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B246">
         <v>53</v>
@@ -4156,7 +4384,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B247">
         <v>53</v>
@@ -4170,7 +4398,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B248">
         <v>64</v>
@@ -4212,7 +4440,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -4226,7 +4454,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -4240,7 +4468,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4254,7 +4482,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B254">
         <v>4</v>
@@ -4268,7 +4496,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B255">
         <v>4</v>
@@ -4282,7 +4510,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B256">
         <v>5</v>
@@ -4296,7 +4524,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B257">
         <v>5</v>
@@ -4310,7 +4538,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B258">
         <v>8</v>
@@ -4324,7 +4552,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B259">
         <v>10</v>
@@ -4338,7 +4566,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B260">
         <v>11</v>
@@ -4352,7 +4580,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B261">
         <v>11</v>
@@ -4366,7 +4594,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B262">
         <v>11</v>
@@ -4380,7 +4608,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B263">
         <v>11</v>
@@ -4394,7 +4622,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B264">
         <v>11</v>
@@ -4408,7 +4636,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B265">
         <v>16</v>
@@ -4422,7 +4650,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B266">
         <v>16</v>
@@ -4436,7 +4664,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B267">
         <v>16</v>
@@ -4450,7 +4678,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B268">
         <v>16</v>
@@ -4464,7 +4692,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B269">
         <v>19</v>
@@ -4478,7 +4706,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B270">
         <v>22</v>
@@ -4492,7 +4720,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B271">
         <v>22</v>
@@ -4506,7 +4734,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B272">
         <v>23</v>
@@ -4520,7 +4748,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B273">
         <v>23</v>
@@ -4534,7 +4762,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B274">
         <v>23</v>
@@ -4548,7 +4776,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B275">
         <v>24</v>
@@ -4562,7 +4790,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B276">
         <v>24</v>
@@ -4576,7 +4804,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B277">
         <v>24</v>
@@ -4590,7 +4818,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B278">
         <v>27</v>
@@ -4604,7 +4832,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B279">
         <v>28</v>
@@ -4618,7 +4846,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B280">
         <v>31</v>
@@ -4632,7 +4860,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B281">
         <v>31</v>
@@ -4646,7 +4874,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B282">
         <v>32</v>
@@ -4660,7 +4888,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B283">
         <v>32</v>
@@ -4674,7 +4902,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B284">
         <v>33</v>
@@ -4688,7 +4916,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B285">
         <v>34</v>
@@ -4702,7 +4930,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B286">
         <v>36</v>
@@ -4716,7 +4944,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B287">
         <v>37</v>
@@ -4730,7 +4958,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B288">
         <v>37</v>
@@ -4744,7 +4972,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B289">
         <v>38</v>
@@ -4758,7 +4986,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B290">
         <v>39</v>
@@ -4772,7 +5000,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B291">
         <v>39</v>
@@ -4786,7 +5014,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B292">
         <v>43</v>
@@ -4800,7 +5028,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B293">
         <v>44</v>
@@ -4814,7 +5042,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B294">
         <v>44</v>
@@ -4828,7 +5056,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B295">
         <v>44</v>
@@ -4842,7 +5070,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B296">
         <v>44</v>
@@ -4856,7 +5084,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B297">
         <v>45</v>
@@ -4870,7 +5098,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B298">
         <v>45</v>
@@ -4884,7 +5112,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B299">
         <v>46</v>
@@ -4898,7 +5126,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B300">
         <v>46</v>
@@ -4912,7 +5140,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B301">
         <v>46</v>
@@ -4926,7 +5154,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B302">
         <v>50</v>
@@ -4940,7 +5168,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B303">
         <v>50</v>
@@ -4954,7 +5182,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B304">
         <v>51</v>
@@ -4968,7 +5196,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B305">
         <v>51</v>
@@ -4982,7 +5210,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B306">
         <v>52</v>
@@ -4996,7 +5224,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B307">
         <v>53</v>
@@ -5010,7 +5238,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B308">
         <v>53</v>
@@ -5024,7 +5252,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B309">
         <v>53</v>
@@ -5038,7 +5266,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B310">
         <v>53</v>
@@ -5052,7 +5280,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B311">
         <v>55</v>
@@ -5066,7 +5294,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B312">
         <v>64</v>
@@ -5079,442 +5307,3217 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>109</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
       <c r="D313" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>110</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
       <c r="D314" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>111</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
       <c r="D315" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>112</v>
+      </c>
+      <c r="B316">
+        <v>8</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
       <c r="D316" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>110</v>
+      </c>
+      <c r="B317">
+        <v>8</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
       <c r="D317" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>109</v>
+      </c>
+      <c r="B318">
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
       <c r="D318" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>112</v>
+      </c>
+      <c r="B319">
+        <v>10</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
       <c r="D319" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>112</v>
+      </c>
+      <c r="B320">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
       <c r="D320" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>113</v>
+      </c>
+      <c r="B321">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
       <c r="D321" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>110</v>
+      </c>
+      <c r="B322">
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>4</v>
+      </c>
       <c r="D322" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>114</v>
+      </c>
+      <c r="B323">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
       <c r="D323" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>109</v>
+      </c>
+      <c r="B324">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
       <c r="D324" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>115</v>
+      </c>
+      <c r="B325">
+        <v>19</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
       <c r="D325" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>115</v>
+      </c>
+      <c r="B326">
+        <v>20</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
       <c r="D326" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>112</v>
+      </c>
+      <c r="B327">
+        <v>22</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
       <c r="D327" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>116</v>
+      </c>
+      <c r="B328">
+        <v>22</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
       <c r="D328" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>113</v>
+      </c>
+      <c r="B329">
+        <v>22</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
       <c r="D329" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>110</v>
+      </c>
+      <c r="B330">
+        <v>22</v>
+      </c>
+      <c r="C330" t="s">
+        <v>4</v>
+      </c>
       <c r="D330" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>115</v>
+      </c>
+      <c r="B331">
+        <v>22</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
       <c r="D331" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>117</v>
+      </c>
+      <c r="B332">
+        <v>23</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
       <c r="D332" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>118</v>
+      </c>
+      <c r="B333">
+        <v>23</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
       <c r="D333" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>109</v>
+      </c>
+      <c r="B334">
+        <v>23</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
       <c r="D334" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>113</v>
+      </c>
+      <c r="B335">
+        <v>23</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
       <c r="D335" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>113</v>
+      </c>
+      <c r="B336">
+        <v>28</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
       <c r="D336" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>110</v>
+      </c>
+      <c r="B337">
+        <v>28</v>
+      </c>
+      <c r="C337" t="s">
+        <v>4</v>
+      </c>
       <c r="D337" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>112</v>
+      </c>
+      <c r="B338">
+        <v>29</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
       <c r="D338" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>119</v>
+      </c>
+      <c r="B339">
+        <v>29</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
       <c r="D339" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>109</v>
+      </c>
+      <c r="B340">
+        <v>29</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
       <c r="D340" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>120</v>
+      </c>
+      <c r="B341">
+        <v>29</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
       <c r="D341" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>121</v>
+      </c>
+      <c r="B342">
+        <v>30</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
       <c r="D342" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>119</v>
+      </c>
+      <c r="B343">
+        <v>30</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
       <c r="D343" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>122</v>
+      </c>
+      <c r="B344">
+        <v>30</v>
+      </c>
+      <c r="C344" t="s">
+        <v>4</v>
+      </c>
       <c r="D344" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>109</v>
+      </c>
+      <c r="B345">
+        <v>30</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
       <c r="D345" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>123</v>
+      </c>
+      <c r="B346">
+        <v>30</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
       <c r="D346" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>119</v>
+      </c>
+      <c r="B347">
+        <v>31</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
       <c r="D347" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>124</v>
+      </c>
+      <c r="B348">
+        <v>32</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
       <c r="D348" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>119</v>
+      </c>
+      <c r="B349">
+        <v>32</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
       <c r="D349" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>119</v>
+      </c>
+      <c r="B350">
+        <v>33</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
       <c r="D350" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>125</v>
+      </c>
+      <c r="B351">
+        <v>34</v>
+      </c>
+      <c r="C351" t="s">
+        <v>4</v>
+      </c>
       <c r="D351" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>126</v>
+      </c>
+      <c r="B352">
+        <v>34</v>
+      </c>
+      <c r="C352" t="s">
+        <v>4</v>
+      </c>
       <c r="D352" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>112</v>
+      </c>
+      <c r="B353">
+        <v>36</v>
+      </c>
+      <c r="C353" t="s">
+        <v>4</v>
+      </c>
       <c r="D353" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>122</v>
+      </c>
+      <c r="B354">
+        <v>36</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
       <c r="D354" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>110</v>
+      </c>
+      <c r="B355">
+        <v>36</v>
+      </c>
+      <c r="C355" t="s">
+        <v>4</v>
+      </c>
       <c r="D355" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>124</v>
+      </c>
+      <c r="B356">
+        <v>37</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
       <c r="D356" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>122</v>
+      </c>
+      <c r="B357">
+        <v>37</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
       <c r="D357" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>109</v>
+      </c>
+      <c r="B358">
+        <v>37</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
       <c r="D358" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>127</v>
+      </c>
+      <c r="B359">
+        <v>38</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
       <c r="D359" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>128</v>
+      </c>
+      <c r="B360">
+        <v>38</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
       <c r="D360" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>115</v>
+      </c>
+      <c r="B361">
+        <v>38</v>
+      </c>
+      <c r="C361" t="s">
+        <v>4</v>
+      </c>
       <c r="D361" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>129</v>
+      </c>
+      <c r="B362">
+        <v>39</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
       <c r="D362" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>121</v>
+      </c>
+      <c r="B363">
+        <v>43</v>
+      </c>
+      <c r="C363" t="s">
+        <v>4</v>
+      </c>
       <c r="D363" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>112</v>
+      </c>
+      <c r="B364">
+        <v>43</v>
+      </c>
+      <c r="C364" t="s">
+        <v>4</v>
+      </c>
       <c r="D364" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>130</v>
+      </c>
+      <c r="B365">
+        <v>43</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
       <c r="D365" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>131</v>
+      </c>
+      <c r="B366">
+        <v>43</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
       <c r="D366" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>132</v>
+      </c>
+      <c r="B367">
+        <v>43</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
       <c r="D367" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>110</v>
+      </c>
+      <c r="B368">
+        <v>43</v>
+      </c>
+      <c r="C368" t="s">
+        <v>4</v>
+      </c>
       <c r="D368" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>133</v>
+      </c>
+      <c r="B369">
+        <v>44</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
       <c r="D369" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>130</v>
+      </c>
+      <c r="B370">
+        <v>44</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
       <c r="D370" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>118</v>
+      </c>
+      <c r="B371">
+        <v>44</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
       <c r="D371" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>109</v>
+      </c>
+      <c r="B372">
+        <v>44</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
       <c r="D372" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>132</v>
+      </c>
+      <c r="B373">
+        <v>44</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
       <c r="D373" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>119</v>
+      </c>
+      <c r="B374">
+        <v>45</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
       <c r="D374" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>134</v>
+      </c>
+      <c r="B375">
+        <v>45</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
       <c r="D375" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>129</v>
+      </c>
+      <c r="B376">
+        <v>46</v>
+      </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
       <c r="D376" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>129</v>
+      </c>
+      <c r="B377">
+        <v>50</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
       <c r="D377" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>112</v>
+      </c>
+      <c r="B378">
+        <v>50</v>
+      </c>
+      <c r="C378" t="s">
+        <v>4</v>
+      </c>
       <c r="D378" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>124</v>
+      </c>
+      <c r="B379">
+        <v>50</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
       <c r="D379" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>135</v>
+      </c>
+      <c r="B380">
+        <v>50</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
       <c r="D380" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>110</v>
+      </c>
+      <c r="B381">
+        <v>50</v>
+      </c>
+      <c r="C381" t="s">
+        <v>4</v>
+      </c>
       <c r="D381" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>109</v>
+      </c>
+      <c r="B382">
+        <v>51</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
       <c r="D382" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>123</v>
+      </c>
+      <c r="B383">
+        <v>51</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
       <c r="D383" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>132</v>
+      </c>
+      <c r="B384">
+        <v>51</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
       <c r="D384" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>136</v>
+      </c>
+      <c r="B385">
+        <v>52</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
       <c r="D385" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>117</v>
+      </c>
+      <c r="B386">
+        <v>52</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
       <c r="D386" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>137</v>
+      </c>
+      <c r="B387">
+        <v>52</v>
+      </c>
+      <c r="C387" t="s">
+        <v>4</v>
+      </c>
       <c r="D387" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>135</v>
+      </c>
+      <c r="B388">
+        <v>52</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
       <c r="D388" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>138</v>
+      </c>
+      <c r="B389">
+        <v>53</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
       <c r="D389" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>139</v>
+      </c>
+      <c r="B390">
+        <v>53</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
       <c r="D390" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>124</v>
+      </c>
+      <c r="B391">
+        <v>54</v>
+      </c>
+      <c r="C391" t="s">
+        <v>4</v>
+      </c>
       <c r="D391" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>140</v>
+      </c>
+      <c r="B392">
+        <v>54</v>
+      </c>
+      <c r="C392" t="s">
+        <v>4</v>
+      </c>
       <c r="D392" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>141</v>
+      </c>
+      <c r="B393">
+        <v>54</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
       <c r="D393" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>112</v>
+      </c>
+      <c r="B394">
+        <v>64</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
       <c r="D394" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>124</v>
+      </c>
+      <c r="B395">
+        <v>64</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
       <c r="D395" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>110</v>
+      </c>
+      <c r="B396">
+        <v>64</v>
+      </c>
+      <c r="C396" t="s">
+        <v>4</v>
+      </c>
       <c r="D396" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>142</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
       <c r="D397" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>143</v>
+      </c>
+      <c r="B398">
+        <v>3</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
       <c r="D398" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>144</v>
+      </c>
+      <c r="B399">
+        <v>3</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
       <c r="D399" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>145</v>
+      </c>
+      <c r="B400">
+        <v>4</v>
+      </c>
+      <c r="C400" t="s">
+        <v>4</v>
+      </c>
       <c r="D400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>146</v>
+      </c>
+      <c r="B401">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>4</v>
+      </c>
+      <c r="D401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>147</v>
+      </c>
+      <c r="B402">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>148</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>4</v>
+      </c>
+      <c r="D403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>149</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>4</v>
+      </c>
+      <c r="D404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>150</v>
+      </c>
+      <c r="B405">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>4</v>
+      </c>
+      <c r="D405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>151</v>
+      </c>
+      <c r="B406">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>152</v>
+      </c>
+      <c r="B407">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>4</v>
+      </c>
+      <c r="D407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>153</v>
+      </c>
+      <c r="B408">
+        <v>9</v>
+      </c>
+      <c r="C408" t="s">
+        <v>4</v>
+      </c>
+      <c r="D408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>142</v>
+      </c>
+      <c r="B409">
+        <v>9</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>143</v>
+      </c>
+      <c r="B410">
+        <v>10</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>144</v>
+      </c>
+      <c r="B411">
+        <v>10</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>154</v>
+      </c>
+      <c r="B412">
+        <v>11</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>155</v>
+      </c>
+      <c r="B413">
+        <v>11</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>147</v>
+      </c>
+      <c r="B414">
+        <v>15</v>
+      </c>
+      <c r="C414" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>156</v>
+      </c>
+      <c r="B415">
+        <v>16</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>153</v>
+      </c>
+      <c r="B416">
+        <v>16</v>
+      </c>
+      <c r="C416" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>157</v>
+      </c>
+      <c r="B417">
+        <v>16</v>
+      </c>
+      <c r="C417" t="s">
+        <v>4</v>
+      </c>
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>158</v>
+      </c>
+      <c r="B418">
+        <v>16</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>155</v>
+      </c>
+      <c r="B419">
+        <v>16</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>142</v>
+      </c>
+      <c r="B420">
+        <v>16</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>148</v>
+      </c>
+      <c r="B421">
+        <v>17</v>
+      </c>
+      <c r="C421" t="s">
+        <v>4</v>
+      </c>
+      <c r="D421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>143</v>
+      </c>
+      <c r="B422">
+        <v>17</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>159</v>
+      </c>
+      <c r="B423">
+        <v>17</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>157</v>
+      </c>
+      <c r="B424">
+        <v>17</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>144</v>
+      </c>
+      <c r="B425">
+        <v>17</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>148</v>
+      </c>
+      <c r="B426">
+        <v>19</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>149</v>
+      </c>
+      <c r="B427">
+        <v>19</v>
+      </c>
+      <c r="C427" t="s">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>160</v>
+      </c>
+      <c r="B428">
+        <v>19</v>
+      </c>
+      <c r="C428" t="s">
+        <v>4</v>
+      </c>
+      <c r="D428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>150</v>
+      </c>
+      <c r="B429">
+        <v>19</v>
+      </c>
+      <c r="C429" t="s">
+        <v>4</v>
+      </c>
+      <c r="D429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>152</v>
+      </c>
+      <c r="B430">
+        <v>19</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>161</v>
+      </c>
+      <c r="B431">
+        <v>20</v>
+      </c>
+      <c r="C431" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>162</v>
+      </c>
+      <c r="B432">
+        <v>20</v>
+      </c>
+      <c r="C432" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>160</v>
+      </c>
+      <c r="B433">
+        <v>20</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>163</v>
+      </c>
+      <c r="B434">
+        <v>20</v>
+      </c>
+      <c r="C434" t="s">
+        <v>4</v>
+      </c>
+      <c r="D434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>164</v>
+      </c>
+      <c r="B435">
+        <v>22</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>147</v>
+      </c>
+      <c r="B436">
+        <v>22</v>
+      </c>
+      <c r="C436" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>157</v>
+      </c>
+      <c r="B437">
+        <v>22</v>
+      </c>
+      <c r="C437" t="s">
+        <v>4</v>
+      </c>
+      <c r="D437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>165</v>
+      </c>
+      <c r="B438">
+        <v>22</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>166</v>
+      </c>
+      <c r="B439">
+        <v>22</v>
+      </c>
+      <c r="C439" t="s">
+        <v>4</v>
+      </c>
+      <c r="D439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>152</v>
+      </c>
+      <c r="B440">
+        <v>22</v>
+      </c>
+      <c r="C440" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>145</v>
+      </c>
+      <c r="B441">
+        <v>22</v>
+      </c>
+      <c r="C441" t="s">
+        <v>4</v>
+      </c>
+      <c r="D441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>167</v>
+      </c>
+      <c r="B442">
+        <v>23</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>153</v>
+      </c>
+      <c r="B443">
+        <v>23</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>168</v>
+      </c>
+      <c r="B444">
+        <v>23</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>142</v>
+      </c>
+      <c r="B445">
+        <v>23</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>169</v>
+      </c>
+      <c r="B446">
+        <v>24</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>170</v>
+      </c>
+      <c r="B447">
+        <v>24</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>171</v>
+      </c>
+      <c r="B448">
+        <v>24</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>144</v>
+      </c>
+      <c r="B449">
+        <v>24</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>165</v>
+      </c>
+      <c r="B450">
+        <v>25</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>147</v>
+      </c>
+      <c r="B451">
+        <v>29</v>
+      </c>
+      <c r="C451" t="s">
+        <v>4</v>
+      </c>
+      <c r="D451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>172</v>
+      </c>
+      <c r="B452">
+        <v>29</v>
+      </c>
+      <c r="C452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>173</v>
+      </c>
+      <c r="B453">
+        <v>29</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>168</v>
+      </c>
+      <c r="B454">
+        <v>30</v>
+      </c>
+      <c r="C454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>143</v>
+      </c>
+      <c r="B455">
+        <v>30</v>
+      </c>
+      <c r="C455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>159</v>
+      </c>
+      <c r="B456">
+        <v>30</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>173</v>
+      </c>
+      <c r="B457">
+        <v>30</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>162</v>
+      </c>
+      <c r="B458">
+        <v>30</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>158</v>
+      </c>
+      <c r="B459">
+        <v>30</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>174</v>
+      </c>
+      <c r="B460">
+        <v>30</v>
+      </c>
+      <c r="C460" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>142</v>
+      </c>
+      <c r="B461">
+        <v>30</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>164</v>
+      </c>
+      <c r="B462">
+        <v>31</v>
+      </c>
+      <c r="C462" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>143</v>
+      </c>
+      <c r="B463">
+        <v>31</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>144</v>
+      </c>
+      <c r="B464">
+        <v>31</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>173</v>
+      </c>
+      <c r="B465">
+        <v>32</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>165</v>
+      </c>
+      <c r="B466">
+        <v>32</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>148</v>
+      </c>
+      <c r="B467">
+        <v>33</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>149</v>
+      </c>
+      <c r="B468">
+        <v>33</v>
+      </c>
+      <c r="C468" t="s">
+        <v>4</v>
+      </c>
+      <c r="D468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>150</v>
+      </c>
+      <c r="B469">
+        <v>33</v>
+      </c>
+      <c r="C469" t="s">
+        <v>4</v>
+      </c>
+      <c r="D469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>152</v>
+      </c>
+      <c r="B470">
+        <v>33</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>175</v>
+      </c>
+      <c r="B471">
+        <v>34</v>
+      </c>
+      <c r="C471" t="s">
+        <v>4</v>
+      </c>
+      <c r="D471" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>143</v>
+      </c>
+      <c r="B472">
+        <v>34</v>
+      </c>
+      <c r="C472" t="s">
+        <v>4</v>
+      </c>
+      <c r="D472" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>176</v>
+      </c>
+      <c r="B473">
+        <v>34</v>
+      </c>
+      <c r="C473" t="s">
+        <v>4</v>
+      </c>
+      <c r="D473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>173</v>
+      </c>
+      <c r="B474">
+        <v>35</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>147</v>
+      </c>
+      <c r="B475">
+        <v>36</v>
+      </c>
+      <c r="C475" t="s">
+        <v>4</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>145</v>
+      </c>
+      <c r="B476">
+        <v>36</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>164</v>
+      </c>
+      <c r="B477">
+        <v>37</v>
+      </c>
+      <c r="C477" t="s">
+        <v>4</v>
+      </c>
+      <c r="D477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>177</v>
+      </c>
+      <c r="B478">
+        <v>37</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>142</v>
+      </c>
+      <c r="B479">
+        <v>37</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>164</v>
+      </c>
+      <c r="B480">
+        <v>38</v>
+      </c>
+      <c r="C480" t="s">
+        <v>4</v>
+      </c>
+      <c r="D480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>148</v>
+      </c>
+      <c r="B481">
+        <v>38</v>
+      </c>
+      <c r="C481" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>171</v>
+      </c>
+      <c r="B482">
+        <v>38</v>
+      </c>
+      <c r="C482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>144</v>
+      </c>
+      <c r="B483">
+        <v>38</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>152</v>
+      </c>
+      <c r="B484">
+        <v>38</v>
+      </c>
+      <c r="C484" t="s">
+        <v>4</v>
+      </c>
+      <c r="D484" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>178</v>
+      </c>
+      <c r="B485">
+        <v>39</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>170</v>
+      </c>
+      <c r="B486">
+        <v>39</v>
+      </c>
+      <c r="C486" t="s">
+        <v>4</v>
+      </c>
+      <c r="D486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>168</v>
+      </c>
+      <c r="B487">
+        <v>43</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>147</v>
+      </c>
+      <c r="B488">
+        <v>43</v>
+      </c>
+      <c r="C488" t="s">
+        <v>4</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>179</v>
+      </c>
+      <c r="B489">
+        <v>43</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>148</v>
+      </c>
+      <c r="B490">
+        <v>44</v>
+      </c>
+      <c r="C490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>179</v>
+      </c>
+      <c r="B491">
+        <v>44</v>
+      </c>
+      <c r="C491" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>180</v>
+      </c>
+      <c r="B492">
+        <v>44</v>
+      </c>
+      <c r="C492" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>154</v>
+      </c>
+      <c r="B493">
+        <v>44</v>
+      </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>181</v>
+      </c>
+      <c r="B494">
+        <v>44</v>
+      </c>
+      <c r="C494" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>158</v>
+      </c>
+      <c r="B495">
+        <v>44</v>
+      </c>
+      <c r="C495" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>142</v>
+      </c>
+      <c r="B496">
+        <v>44</v>
+      </c>
+      <c r="C496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>182</v>
+      </c>
+      <c r="B497">
+        <v>44</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>143</v>
+      </c>
+      <c r="B498">
+        <v>45</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>144</v>
+      </c>
+      <c r="B499">
+        <v>45</v>
+      </c>
+      <c r="C499" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>166</v>
+      </c>
+      <c r="B500">
+        <v>45</v>
+      </c>
+      <c r="C500" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>164</v>
+      </c>
+      <c r="B501">
+        <v>46</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>183</v>
+      </c>
+      <c r="B502">
+        <v>46</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>173</v>
+      </c>
+      <c r="B503">
+        <v>46</v>
+      </c>
+      <c r="C503" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>176</v>
+      </c>
+      <c r="B504">
+        <v>46</v>
+      </c>
+      <c r="C504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>161</v>
+      </c>
+      <c r="B505">
+        <v>46</v>
+      </c>
+      <c r="C505" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>166</v>
+      </c>
+      <c r="B506">
+        <v>46</v>
+      </c>
+      <c r="C506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>164</v>
+      </c>
+      <c r="B507">
+        <v>50</v>
+      </c>
+      <c r="C507" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>147</v>
+      </c>
+      <c r="B508">
+        <v>50</v>
+      </c>
+      <c r="C508" t="s">
+        <v>4</v>
+      </c>
+      <c r="D508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>176</v>
+      </c>
+      <c r="B509">
+        <v>50</v>
+      </c>
+      <c r="C509" t="s">
+        <v>4</v>
+      </c>
+      <c r="D509" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>165</v>
+      </c>
+      <c r="B510">
+        <v>50</v>
+      </c>
+      <c r="C510" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>145</v>
+      </c>
+      <c r="B511">
+        <v>50</v>
+      </c>
+      <c r="C511" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>156</v>
+      </c>
+      <c r="B512">
+        <v>51</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>83</v>
+      </c>
+      <c r="B513">
+        <v>51</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>168</v>
+      </c>
+      <c r="B514">
+        <v>51</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>159</v>
+      </c>
+      <c r="B515">
+        <v>51</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>173</v>
+      </c>
+      <c r="B516">
+        <v>51</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>162</v>
+      </c>
+      <c r="B517">
+        <v>51</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>165</v>
+      </c>
+      <c r="B518">
+        <v>51</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>174</v>
+      </c>
+      <c r="B519">
+        <v>51</v>
+      </c>
+      <c r="C519" t="s">
+        <v>6</v>
+      </c>
+      <c r="D519" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>155</v>
+      </c>
+      <c r="B520">
+        <v>51</v>
+      </c>
+      <c r="C520" t="s">
+        <v>6</v>
+      </c>
+      <c r="D520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>144</v>
+      </c>
+      <c r="B521">
+        <v>51</v>
+      </c>
+      <c r="C521" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>142</v>
+      </c>
+      <c r="B522">
+        <v>51</v>
+      </c>
+      <c r="C522" t="s">
+        <v>6</v>
+      </c>
+      <c r="D522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>143</v>
+      </c>
+      <c r="B523">
+        <v>52</v>
+      </c>
+      <c r="C523" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>154</v>
+      </c>
+      <c r="B524">
+        <v>52</v>
+      </c>
+      <c r="C524" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>155</v>
+      </c>
+      <c r="B525">
+        <v>52</v>
+      </c>
+      <c r="C525" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>150</v>
+      </c>
+      <c r="B526">
+        <v>53</v>
+      </c>
+      <c r="C526" t="s">
+        <v>4</v>
+      </c>
+      <c r="D526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>155</v>
+      </c>
+      <c r="B527">
+        <v>53</v>
+      </c>
+      <c r="C527" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>146</v>
+      </c>
+      <c r="B528">
+        <v>54</v>
+      </c>
+      <c r="C528" t="s">
+        <v>4</v>
+      </c>
+      <c r="D528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>148</v>
+      </c>
+      <c r="B529">
+        <v>54</v>
+      </c>
+      <c r="C529" t="s">
+        <v>4</v>
+      </c>
+      <c r="D529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>149</v>
+      </c>
+      <c r="B530">
+        <v>54</v>
+      </c>
+      <c r="C530" t="s">
+        <v>4</v>
+      </c>
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>150</v>
+      </c>
+      <c r="B531">
+        <v>54</v>
+      </c>
+      <c r="C531" t="s">
+        <v>4</v>
+      </c>
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>155</v>
+      </c>
+      <c r="B532">
+        <v>54</v>
+      </c>
+      <c r="C532" t="s">
+        <v>6</v>
+      </c>
+      <c r="D532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>151</v>
+      </c>
+      <c r="B533">
+        <v>54</v>
+      </c>
+      <c r="C533" t="s">
+        <v>4</v>
+      </c>
+      <c r="D533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>155</v>
+      </c>
+      <c r="B534">
+        <v>55</v>
+      </c>
+      <c r="C534" t="s">
+        <v>6</v>
+      </c>
+      <c r="D534" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>156</v>
+      </c>
+      <c r="B535">
+        <v>64</v>
+      </c>
+      <c r="C535" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>147</v>
+      </c>
+      <c r="B536">
+        <v>64</v>
+      </c>
+      <c r="C536" t="s">
+        <v>4</v>
+      </c>
+      <c r="D536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>170</v>
+      </c>
+      <c r="B537">
+        <v>64</v>
+      </c>
+      <c r="C537" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D550" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance_issue.xlsx
+++ b/attendance_issue.xlsx
@@ -611,9 +611,6 @@
     <t>cgeary1</t>
   </si>
   <si>
-    <t>dianell</t>
-  </si>
-  <si>
     <t>lunruh1</t>
   </si>
   <si>
@@ -855,6 +852,9 @@
   </si>
   <si>
     <t>sfrick</t>
+  </si>
+  <si>
+    <t>riannell</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="E597" sqref="E597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B556">
         <v>17</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B558">
         <v>17</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B560">
         <v>20</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B563">
         <v>22</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B564">
         <v>23</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B566">
         <v>23</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B567">
         <v>23</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B570">
         <v>24</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B571">
         <v>24</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B572">
         <v>25</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B574">
         <v>25</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B576">
         <v>27</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B579">
         <v>29</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B580">
         <v>29</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B581">
         <v>30</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B585">
         <v>30</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B586">
         <v>31</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B587">
         <v>31</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B592">
         <v>33</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B595">
         <v>34</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B596">
         <v>36</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B598">
         <v>36</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B600">
         <v>38</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B601">
         <v>38</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B602">
         <v>38</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B603">
         <v>38</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B604">
         <v>39</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B605">
         <v>39</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B613">
         <v>45</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B614">
         <v>45</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B615">
         <v>46</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B617">
         <v>46</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B618">
         <v>46</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B620">
         <v>46</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B622">
         <v>46</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B624">
         <v>50</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B625">
         <v>50</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B626">
         <v>50</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B627">
         <v>51</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B628">
         <v>51</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B630">
         <v>51</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B631">
         <v>51</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B632">
         <v>51</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B636">
         <v>51</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B637">
         <v>52</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B639">
         <v>53</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B640">
         <v>55</v>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B641">
         <v>64</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B643">
         <v>64</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B644">
         <v>64</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B646">
         <v>2</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B647">
         <v>2</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B650">
         <v>2</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B651">
         <v>2</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B652">
         <v>3</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B653">
         <v>3</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B654">
         <v>3</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B655">
         <v>3</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B656">
         <v>3</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B657">
         <v>3</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B658">
         <v>4</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B659">
         <v>4</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B660">
         <v>4</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B661">
         <v>4</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B662">
         <v>5</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B663">
         <v>5</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B664">
         <v>5</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B665">
         <v>5</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B666">
         <v>5</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B667">
         <v>5</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B668">
         <v>5</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B669">
         <v>5</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B670">
         <v>8</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B671">
         <v>8</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B672">
         <v>8</v>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B673">
         <v>8</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B674">
         <v>8</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B675">
         <v>9</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B676">
         <v>9</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B677">
         <v>10</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B678">
         <v>10</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B679">
         <v>10</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B680">
         <v>10</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B681">
         <v>10</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B682">
         <v>10</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B683">
         <v>10</v>
@@ -10781,7 +10781,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B684">
         <v>11</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B685">
         <v>11</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B686">
         <v>11</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B687">
         <v>11</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B688">
         <v>11</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B689">
         <v>11</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B690">
         <v>11</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B691">
         <v>15</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B692">
         <v>15</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B693">
         <v>15</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B694">
         <v>15</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B695">
         <v>15</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B696">
         <v>15</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B697">
         <v>15</v>
@@ -10977,7 +10977,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B698">
         <v>15</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B699">
         <v>16</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B700">
         <v>16</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B701">
         <v>16</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B702">
         <v>16</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B703">
         <v>16</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B704">
         <v>16</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B705">
         <v>17</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B706">
         <v>17</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B707">
         <v>17</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B708">
         <v>17</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B709">
         <v>17</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B710">
         <v>17</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B711">
         <v>18</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B712">
         <v>18</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B713">
         <v>22</v>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B714">
         <v>22</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B715">
         <v>22</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B716">
         <v>22</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B717">
         <v>22</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B718">
         <v>22</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B719">
         <v>22</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B720">
         <v>22</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B721">
         <v>22</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B722">
         <v>23</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B723">
         <v>23</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B724">
         <v>23</v>
@@ -11355,7 +11355,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B725">
         <v>23</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B726">
         <v>23</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B727">
         <v>24</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B728">
         <v>24</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B729">
         <v>24</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B730">
         <v>24</v>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B731">
         <v>24</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B732">
         <v>24</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B733">
         <v>24</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B734">
         <v>25</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B735">
         <v>25</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B736">
         <v>25</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B737">
         <v>25</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B738">
         <v>25</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B739">
         <v>25</v>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B740">
         <v>25</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B741">
         <v>25</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B742">
         <v>27</v>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B743">
         <v>27</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B744">
         <v>29</v>
@@ -11635,7 +11635,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B745">
         <v>29</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B746">
         <v>29</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B747">
         <v>29</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B748">
         <v>29</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B749">
         <v>29</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B750">
         <v>30</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B751">
         <v>30</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B752">
         <v>30</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B753">
         <v>30</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B754">
         <v>30</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B755">
         <v>30</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B756">
         <v>30</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B757">
         <v>31</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B758">
         <v>31</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B759">
         <v>31</v>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B760">
         <v>31</v>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B761">
         <v>31</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B762">
         <v>31</v>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B763">
         <v>32</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B764">
         <v>32</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B765">
         <v>32</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B766">
         <v>32</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B767">
         <v>32</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B768">
         <v>32</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B769">
         <v>36</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B770">
         <v>36</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B771">
         <v>36</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B772">
         <v>36</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B773">
         <v>37</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B774">
         <v>37</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B775">
         <v>37</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B776">
         <v>37</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B777">
         <v>37</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B778">
         <v>37</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B779">
         <v>38</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B780">
         <v>38</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B781">
         <v>38</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B782">
         <v>38</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B783">
         <v>38</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B784">
         <v>38</v>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B785">
         <v>38</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B786">
         <v>38</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B787">
         <v>38</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B788">
         <v>38</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B789">
         <v>38</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B790">
         <v>38</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B791">
         <v>38</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B792">
         <v>38</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B793">
         <v>39</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B794">
         <v>39</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B795">
         <v>39</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B796">
         <v>39</v>
@@ -12363,7 +12363,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B797">
         <v>39</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B798">
         <v>39</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B799">
         <v>39</v>
@@ -12405,7 +12405,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B800">
         <v>39</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B801">
         <v>39</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B802">
         <v>39</v>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B803">
         <v>43</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B804">
         <v>43</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B805">
         <v>43</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B806">
         <v>43</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B807">
         <v>44</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B808">
         <v>44</v>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B809">
         <v>44</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B810">
         <v>45</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B811">
         <v>45</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B812">
         <v>45</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B813">
         <v>45</v>
@@ -12601,7 +12601,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B814">
         <v>45</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B815">
         <v>45</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B816">
         <v>46</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B817">
         <v>46</v>
@@ -12657,7 +12657,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B818">
         <v>46</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B819">
         <v>46</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B820">
         <v>46</v>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B821">
         <v>46</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B822">
         <v>46</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B823">
         <v>46</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B824">
         <v>46</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B825">
         <v>46</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B826">
         <v>46</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B827">
         <v>50</v>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B828">
         <v>50</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B829">
         <v>50</v>
@@ -12825,7 +12825,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B830">
         <v>50</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B831">
         <v>50</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B832">
         <v>50</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B833">
         <v>51</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B834">
         <v>51</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B835">
         <v>51</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B836">
         <v>51</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B837">
         <v>51</v>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B838">
         <v>51</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B839">
         <v>51</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B840">
         <v>51</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B841">
         <v>51</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B842">
         <v>51</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B843">
         <v>51</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B844">
         <v>52</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B845">
         <v>52</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B846">
         <v>52</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B847">
         <v>52</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B848">
         <v>53</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B849">
         <v>53</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B850">
         <v>53</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B851">
         <v>53</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B852">
         <v>54</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B853">
         <v>54</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B854">
         <v>54</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B855">
         <v>54</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B856">
         <v>55</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B857">
         <v>55</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B858">
         <v>55</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B859">
         <v>64</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B860">
         <v>8</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B861">
         <v>22</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B862">
         <v>24</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B863">
         <v>28</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B864">
         <v>31</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B865">
         <v>36</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B866">
         <v>37</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B867">
         <v>43</v>
@@ -13357,7 +13357,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B868">
         <v>44</v>
@@ -13371,7 +13371,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B869">
         <v>46</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B870">
         <v>50</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B871">
         <v>64</v>
